--- a/NformTester/NformTester/Keywordscripts/600.30.10.30_DefaultSettingOfFloorplanOfAllDevices.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.10.30_DefaultSettingOfFloorplanOfAllDevices.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="9510"/>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7400" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7400" uniqueCount="822">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3693,6 +3693,10 @@
   </si>
   <si>
     <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4687,8 +4691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4823,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>781</v>
+        <v>821</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>197</v>

--- a/NformTester/NformTester/Keywordscripts/600.30.10.30_DefaultSettingOfFloorplanOfAllDevices.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.10.30_DefaultSettingOfFloorplanOfAllDevices.xlsx
@@ -4691,8 +4691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5780,7 +5780,7 @@
         <v>809</v>
       </c>
       <c r="J36" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="18"/>
       <c r="L36" s="6"/>

--- a/NformTester/NformTester/Keywordscripts/600.30.10.30_DefaultSettingOfFloorplanOfAllDevices.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.10.30_DefaultSettingOfFloorplanOfAllDevices.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7400" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7406" uniqueCount="824">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3688,16 +3688,24 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"C:\Nform\user\samples\floor3.png"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>test</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>;</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Sys_Image_File_Name$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteLocalFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Delete_File_Path$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4689,10 +4697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R150"/>
+  <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35:J36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4791,25 +4799,19 @@
       <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>782</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>766</v>
+      <c r="D3" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>823</v>
       </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>794</v>
-      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -4827,20 +4829,24 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>821</v>
+        <v>782</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+        <v>766</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>794</v>
+      </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -4857,32 +4863,28 @@
       <c r="C5" s="6">
         <v>4</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>782</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>583</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21" t="s">
-        <v>801</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>802</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>803</v>
-      </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22"/>
+      <c r="D5" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="15">
+    <row r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>798</v>
       </c>
@@ -4892,50 +4894,54 @@
       <c r="C6" s="6">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>816</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="D6" s="24" t="s">
+        <v>782</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>583</v>
+      </c>
       <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="16"/>
+      <c r="H6" s="21" t="s">
+        <v>801</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>802</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>803</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="15">
       <c r="A7" s="4" t="s">
         <v>767</v>
       </c>
       <c r="B7" s="5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" s="6">
         <v>6</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="D7" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="19"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15">
@@ -4946,16 +4952,16 @@
       <c r="C8" s="6">
         <v>7</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="21"/>
@@ -4978,18 +4984,16 @@
       <c r="D9" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>623</v>
+      <c r="E9" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>624</v>
+        <v>80</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>805</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="6"/>
@@ -5014,13 +5018,15 @@
       <c r="E10" s="23" t="s">
         <v>623</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="21"/>
+      <c r="F10" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>805</v>
+      </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="6"/>
@@ -5039,10 +5045,10 @@
         <v>781</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>629</v>
+        <v>174</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>2</v>
@@ -5068,23 +5074,17 @@
         <v>781</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>641</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>813</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>784</v>
-      </c>
-      <c r="J12" s="18" t="b">
-        <v>0</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -5106,13 +5106,13 @@
         <v>638</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>783</v>
+        <v>813</v>
       </c>
       <c r="I13" s="23" t="s">
         <v>784</v>
@@ -5141,7 +5141,7 @@
         <v>638</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>7</v>
@@ -5176,7 +5176,7 @@
         <v>638</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>7</v>
@@ -5211,7 +5211,7 @@
         <v>638</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>7</v>
@@ -5246,18 +5246,18 @@
         <v>638</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>640</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>814</v>
+        <v>630</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>783</v>
       </c>
       <c r="I17" s="23" t="s">
         <v>784</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="18" t="b">
         <v>0</v>
       </c>
       <c r="K17" s="6"/>
@@ -5281,14 +5281,20 @@
         <v>638</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>814</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>784</v>
+      </c>
+      <c r="J18" s="21">
+        <v>0</v>
+      </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -5310,10 +5316,10 @@
         <v>638</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>17</v>
+        <v>641</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
@@ -5337,7 +5343,7 @@
         <v>781</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>17</v>
@@ -5365,7 +5371,7 @@
         <v>781</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>277</v>
+        <v>626</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>17</v>
@@ -5394,10 +5400,10 @@
         <v>781</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>623</v>
+        <v>277</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>2</v>
@@ -5408,7 +5414,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="16"/>
+      <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3"/>
@@ -5416,16 +5422,16 @@
       <c r="C23" s="6">
         <v>22</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="E23" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="21" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="21"/>
@@ -5442,16 +5448,16 @@
       <c r="C24" s="6">
         <v>23</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="18" t="s">
+      <c r="F24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H24" s="21"/>
@@ -5471,18 +5477,16 @@
       <c r="D25" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E25" s="23" t="s">
-        <v>623</v>
+      <c r="E25" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>624</v>
+        <v>80</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>805</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="6"/>
@@ -5506,13 +5510,15 @@
       <c r="E26" s="23" t="s">
         <v>623</v>
       </c>
-      <c r="F26" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="21"/>
+      <c r="F26" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>805</v>
+      </c>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="6"/>
@@ -5534,10 +5540,10 @@
         <v>781</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>2</v>
@@ -5560,21 +5566,19 @@
       <c r="C28" s="6">
         <v>27</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>635</v>
+      <c r="D28" s="25" t="s">
+        <v>781</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>626</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>818</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="6"/>
@@ -5593,7 +5597,7 @@
         <v>635</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G29" s="21" t="s">
         <v>4</v>
@@ -5623,13 +5627,13 @@
         <v>635</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>636</v>
+        <v>255</v>
       </c>
       <c r="G30" s="21" t="s">
         <v>4</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
@@ -5649,12 +5653,14 @@
         <v>635</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>17</v>
+        <v>636</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>821</v>
+      </c>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="6"/>
@@ -5666,11 +5672,11 @@
       <c r="C32" s="6">
         <v>31</v>
       </c>
-      <c r="D32" s="25" t="s">
-        <v>781</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>626</v>
+      <c r="D32" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>635</v>
       </c>
       <c r="F32" s="21" t="s">
         <v>17</v>
@@ -5695,7 +5701,7 @@
         <v>781</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>277</v>
+        <v>626</v>
       </c>
       <c r="F33" s="21" t="s">
         <v>17</v>
@@ -5719,10 +5725,10 @@
         <v>781</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>623</v>
+        <v>277</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>2</v>
@@ -5740,26 +5746,24 @@
         <v>34</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>812</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>807</v>
-      </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18" t="s">
-        <v>808</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>809</v>
-      </c>
-      <c r="J35" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K35" s="18"/>
+        <v>781</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="3"/>
+      <c r="N35" s="16"/>
     </row>
     <row r="36" spans="3:14">
       <c r="C36" s="6">
@@ -5774,7 +5778,7 @@
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>809</v>
@@ -5787,40 +5791,42 @@
       <c r="M36" s="6"/>
       <c r="N36" s="3"/>
     </row>
-    <row r="37" spans="3:14" ht="15">
+    <row r="37" spans="3:14">
       <c r="C37" s="6">
         <v>36</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>811</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="D37" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="J37" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="18"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="3:14">
+    <row r="38" spans="3:14" ht="15">
       <c r="C38" s="6">
         <v>37</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="D38" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
       <c r="H38" s="11"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -5840,13 +5846,13 @@
         <v>19</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
@@ -5861,24 +5867,23 @@
         <v>781</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>577</v>
+        <v>19</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>578</v>
+        <v>78</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="I40" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
+      <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="3:14" ht="14.25">
+    <row r="41" spans="3:14">
       <c r="C41" s="6">
         <v>40</v>
       </c>
@@ -5889,35 +5894,37 @@
         <v>577</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>184</v>
+        <v>578</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>806</v>
+      </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="3:14">
+    <row r="42" spans="3:14" ht="14.25">
       <c r="C42" s="6">
         <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>585</v>
+      <c r="E42" s="11" t="s">
+        <v>577</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="11"/>
+      <c r="H42" s="17"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
@@ -5931,17 +5938,17 @@
       <c r="D43" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>577</v>
+      <c r="E43" s="6" t="s">
+        <v>585</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
@@ -5954,17 +5961,17 @@
       <c r="D44" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>19</v>
+      <c r="E44" s="11" t="s">
+        <v>577</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="6"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -5974,16 +5981,16 @@
       <c r="C45" s="6">
         <v>44</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G45" s="18" t="s">
+      <c r="F45" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H45" s="21"/>
@@ -6000,18 +6007,16 @@
       <c r="D46" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E46" s="23" t="s">
-        <v>623</v>
+      <c r="E46" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>624</v>
+        <v>80</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>805</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" s="21"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -6028,13 +6033,15 @@
       <c r="E47" s="23" t="s">
         <v>623</v>
       </c>
-      <c r="F47" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H47" s="21"/>
+      <c r="F47" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>805</v>
+      </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -6049,20 +6056,16 @@
         <v>781</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>626</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>627</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H48" s="23">
-        <v>2</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>820</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="21"/>
+      <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
@@ -6078,14 +6081,18 @@
       <c r="E49" s="23" t="s">
         <v>626</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="F49" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" s="23">
+        <v>2</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>819</v>
+      </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
@@ -6101,10 +6108,10 @@
       <c r="E50" s="23" t="s">
         <v>626</v>
       </c>
-      <c r="F50" s="21" t="s">
-        <v>629</v>
-      </c>
-      <c r="G50" s="21" t="s">
+      <c r="F50" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H50" s="6"/>
@@ -6113,7 +6120,6 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
-      <c r="N50" s="20"/>
       <c r="O50" s="20"/>
     </row>
     <row r="51" spans="3:15">
@@ -6124,13 +6130,13 @@
         <v>781</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -6152,10 +6158,10 @@
         <v>638</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>17</v>
+        <v>641</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -6173,7 +6179,7 @@
         <v>781</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="F53" s="21" t="s">
         <v>17</v>
@@ -6187,6 +6193,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
+      <c r="N53" s="20"/>
     </row>
     <row r="54" spans="3:15">
       <c r="C54" s="6">
@@ -6196,7 +6203,7 @@
         <v>781</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>277</v>
+        <v>626</v>
       </c>
       <c r="F54" s="21" t="s">
         <v>17</v>
@@ -6219,10 +6226,10 @@
         <v>781</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>623</v>
+        <v>277</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="G55" s="21" t="s">
         <v>2</v>
@@ -6235,11 +6242,21 @@
       <c r="M55" s="6"/>
     </row>
     <row r="56" spans="3:15">
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
+      <c r="C56" s="6">
+        <v>55</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>781</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
@@ -6248,10 +6265,18 @@
       <c r="M56" s="6"/>
     </row>
     <row r="57" spans="3:15">
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="C57" s="6">
+        <v>56</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>823</v>
+      </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -6855,6 +6880,8 @@
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
     </row>
     <row r="104" spans="3:13">
       <c r="C104" s="6"/>
@@ -7030,6 +7057,7 @@
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
     </row>
     <row r="120" spans="3:11">
       <c r="C120" s="6"/>
@@ -7328,9 +7356,18 @@
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
     </row>
+    <row r="151" spans="4:10">
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N34">
+  <conditionalFormatting sqref="N2:N35">
     <cfRule type="cellIs" dxfId="1" priority="31" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7339,16 +7376,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D36 D3:D5 D8:D22 D24:D27 D45:D55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33:D37 D3:D6 D9:D23 D25:D28 D46:D57">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G36 G44:G48 G50:G55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G45:G49 G51:G56 G2:G37">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F36 F44:F48 F50:F55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F45:F49 F51:F56 F2 F4:F37">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E36 E44:E55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E45:E57 E2:E37">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
